--- a/documentation/Listing_fichier_wakdo.xlsx
+++ b/documentation/Listing_fichier_wakdo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation\examen\wakdo_back_jkarmann\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB6B25-6AE1-4F93-84F9-A230D812397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D4642-EC5F-40B4-9B73-27DAA12B9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{98E45A1D-0E1D-49BF-B027-96914A6C70D0}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{98E45A1D-0E1D-49BF-B027-96914A6C70D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Contrôleurs" sheetId="1" r:id="rId1"/>
-    <sheet name="Contrôleurs PHP AJAX" sheetId="3" r:id="rId2"/>
-    <sheet name="Templates" sheetId="2" r:id="rId3"/>
+    <sheet name="Api contrôleurs" sheetId="5" r:id="rId2"/>
+    <sheet name="Contrôleurs PHP AJAX" sheetId="3" r:id="rId3"/>
+    <sheet name="Templates" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>Description</t>
   </si>
@@ -159,9 +160,6 @@
   </si>
   <si>
     <t>Modifier le statut de la commande en cours en “A préparer” puis générer et afficher la liste des commande en cours</t>
-  </si>
-  <si>
-    <t>changeOrderStatusHost</t>
   </si>
   <si>
     <t>Extraire le détail de la commande</t>
@@ -320,6 +318,74 @@
   </si>
   <si>
     <t>deleteUser</t>
+  </si>
+  <si>
+    <t>deleteProduct</t>
+  </si>
+  <si>
+    <t>$_GET : id : id du produit à rendre inactif</t>
+  </si>
+  <si>
+    <t>Modifier le statut de l'article en inactif</t>
+  </si>
+  <si>
+    <t>$_GET : id : l'id de l'utilisateur à supprimer</t>
+  </si>
+  <si>
+    <t>Modifier le statut de l'utilisateur en inactif</t>
+  </si>
+  <si>
+    <t>addOrder</t>
+  </si>
+  <si>
+    <t>listProducts</t>
+  </si>
+  <si>
+    <t>listCategories</t>
+  </si>
+  <si>
+    <t>prepareOrder</t>
+  </si>
+  <si>
+    <t>API d'ajout de commande dans la BDD</t>
+  </si>
+  <si>
+    <t>API renvoyant le liste des catégories au format JSON</t>
+  </si>
+  <si>
+    <t>API renvoyant une liste des produits au format JSON</t>
+  </si>
+  <si>
+    <t>$body : JSON d'une commande</t>
+  </si>
+  <si>
+    <t>$categoriesList : liste des catégories</t>
+  </si>
+  <si>
+    <t>$productsListJson : liste des produits</t>
+  </si>
+  <si>
+    <t>API préparant une commande dans la BDD pour gérer les numéros de commandes</t>
+  </si>
+  <si>
+    <t>$newOrderDetails : JSON contenant
+order_id : l'id de la commande
+order_number : le numéro de commande généré</t>
+  </si>
+  <si>
+    <t>deconnectUser</t>
+  </si>
+  <si>
+    <t>Deconnecte l'utilisateur en cours</t>
+  </si>
+  <si>
+    <t>Extrait les données de la commande pour les afficher</t>
+  </si>
+  <si>
+    <t>$_GET : id : l'id de la commande à extraire</t>
+  </si>
+  <si>
+    <t>$_GET : id : l'id de la commande à modifier</t>
   </si>
 </sst>
 </file>
@@ -378,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C733184-228D-4726-8937-329569EFE7FB}" name="Tableau2" displayName="Tableau2" ref="A1:C19" totalsRowShown="0">
-  <autoFilter ref="A1:C19" xr:uid="{0C733184-228D-4726-8937-329569EFE7FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C733184-228D-4726-8937-329569EFE7FB}" name="Tableau2" displayName="Tableau2" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{0C733184-228D-4726-8937-329569EFE7FB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{422A76FA-DCFB-490B-B470-9C584771276C}" name="Description"/>
     <tableColumn id="2" xr3:uid="{FD1DA887-E2ED-47D1-8397-7314D781B00A}" name="Nom du controleur"/>
@@ -390,6 +456,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{227BEB19-6079-4270-A4F0-0D3A2EB56C97}" name="Tableau5" displayName="Tableau5" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{227BEB19-6079-4270-A4F0-0D3A2EB56C97}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DD8B98E9-ACEE-44E4-82D3-36E18F417718}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{8079CA49-070D-446C-8A6A-33EB0B8A16F3}" name="Nom du contrôleur"/>
+    <tableColumn id="3" xr3:uid="{38A4DB81-E4C2-4C80-9DEE-6A21EE04371F}" name="Paramètres"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD7706CB-859B-4106-A3D9-209BDCA4BCCF}" name="Tableau3" displayName="Tableau3" ref="A1:C8" totalsRowShown="0">
   <autoFilter ref="A1:C8" xr:uid="{CD7706CB-859B-4106-A3D9-209BDCA4BCCF}"/>
   <tableColumns count="3">
@@ -401,7 +479,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0C421C-F8D6-4681-BDC4-46C3B064CBC3}" name="Tableau1" displayName="Tableau1" ref="A1:C12" totalsRowShown="0">
   <autoFilter ref="A1:C12" xr:uid="{FF0C421C-F8D6-4681-BDC4-46C3B064CBC3}"/>
   <tableColumns count="3">
@@ -713,10 +791,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +817,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -761,21 +839,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -783,65 +858,65 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -849,10 +924,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -860,32 +935,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -893,46 +968,98 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +1071,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2566DD99-47F2-421E-934F-8DB44BE78712}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61954A5-74A5-4B33-BD43-E69080BADAD8}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -974,79 +1182,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF074440-229E-4F74-903E-9738F797466E}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1065,7 +1273,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1116,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1124,10 +1332,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,10 +1343,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1157,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1376,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1409,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Listing_fichier_wakdo.xlsx
+++ b/documentation/Listing_fichier_wakdo.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation\examen\wakdo_back_jkarmann\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D4642-EC5F-40B4-9B73-27DAA12B9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE97C67-9A25-4A46-96B5-5AA631D26B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{98E45A1D-0E1D-49BF-B027-96914A6C70D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98E45A1D-0E1D-49BF-B027-96914A6C70D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Contrôleurs" sheetId="1" r:id="rId1"/>
     <sheet name="Api contrôleurs" sheetId="5" r:id="rId2"/>
-    <sheet name="Contrôleurs PHP AJAX" sheetId="3" r:id="rId3"/>
-    <sheet name="Templates" sheetId="2" r:id="rId4"/>
+    <sheet name="Templates" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -141,12 +140,6 @@
     <t>Générer et afficher le formulaire d’ajout d’un utilisateur</t>
   </si>
   <si>
-    <t>$_GET : productId : id du produit à modifier</t>
-  </si>
-  <si>
-    <t>$_GET : userId : id de l'utilisateur à modifier</t>
-  </si>
-  <si>
     <t>$_POST : name (nom de l'utilisateur), forename (prénom de l'utilisateur), role (rôle de l'utilisateur admin, preparateur, hote)</t>
   </si>
   <si>
@@ -162,51 +155,6 @@
     <t>Modifier le statut de la commande en cours en “A préparer” puis générer et afficher la liste des commande en cours</t>
   </si>
   <si>
-    <t>Extraire le détail de la commande</t>
-  </si>
-  <si>
-    <t>Ajouter la composition à la commande dans la BDD</t>
-  </si>
-  <si>
-    <t>deleteProducts</t>
-  </si>
-  <si>
-    <t>$_GET : productId : id du produit à supprimer</t>
-  </si>
-  <si>
-    <t>$_GET : orderId : id de la commande</t>
-  </si>
-  <si>
-    <t>Modifier le statut l’article de la BDD en inactif, générer la liste des articles</t>
-  </si>
-  <si>
-    <t>Modifier le statut de la commande en "préparé" dans la BDD, générer la liste des commandes à préparer dans l’ordre croissant</t>
-  </si>
-  <si>
-    <t>Modifier le statut de l’utilisateur en "inactif", générer et afficher la liste des utilisateur</t>
-  </si>
-  <si>
-    <t>$_GET : userId : id de l'utilisateur</t>
-  </si>
-  <si>
-    <t>addToCart</t>
-  </si>
-  <si>
-    <t>$_POST : composition (objet composition)</t>
-  </si>
-  <si>
-    <t>Supprimer la composition de la commande dans la BDD</t>
-  </si>
-  <si>
-    <t>removeCompositionFromCart</t>
-  </si>
-  <si>
-    <t>$_GET : compositionId (id de la composition à supprimer)</t>
-  </si>
-  <si>
-    <t>Modifier le statut de la commande en "remise" dans la BDD, générer la liste des commandes prêtes dans l’ordre croissant</t>
-  </si>
-  <si>
     <t>$orderNumber : numéro de la commande</t>
   </si>
   <si>
@@ -271,9 +219,6 @@
   </si>
   <si>
     <t>$_POST : name (nom du produit), price (prix du produit), image (nom du fichier), description (description du produit), id_dispo (booléen : true si dispo, false sinon), is_menu_product (booléen : true si en menu, false sinon)</t>
-  </si>
-  <si>
-    <t>$_POST : name (nom du produit), price (prix du produit), image (nom du fichier), description (description du produit), is_dispo (booléen : true si dispo, false sinon), is_menu_product (booléen : true si en menu, false sinon)</t>
   </si>
   <si>
     <t>displayPrepaOrderList</t>
@@ -359,20 +304,9 @@
     <t>$body : JSON d'une commande</t>
   </si>
   <si>
-    <t>$categoriesList : liste des catégories</t>
-  </si>
-  <si>
-    <t>$productsListJson : liste des produits</t>
-  </si>
-  <si>
     <t>API préparant une commande dans la BDD pour gérer les numéros de commandes</t>
   </si>
   <si>
-    <t>$newOrderDetails : JSON contenant
-order_id : l'id de la commande
-order_number : le numéro de commande généré</t>
-  </si>
-  <si>
     <t>deconnectUser</t>
   </si>
   <si>
@@ -386,6 +320,23 @@
   </si>
   <si>
     <t>$_GET : id : l'id de la commande à modifier</t>
+  </si>
+  <si>
+    <t>$_GET : id : id du produit à modifier</t>
+  </si>
+  <si>
+    <t>$_POST : name (nom du produit), price (prix du produit), image (nom du fichier), description (description du produit), is_dispo (booléen : true si dispo, false sinon), is_menu_product (booléen : true si en menu, false sinon)
+$id : id du produit à modifier</t>
+  </si>
+  <si>
+    <t>$_POST : name (nom de l'utilisateur), forename (prénom de l'utilisateur), role (rôle de l'utilisateur admin, preparateur, hote)
+$_GET : id : id de l'utilisateur à mettre à jour</t>
+  </si>
+  <si>
+    <t>Modifier le statut de la commande en cours en “Remise” puis générer et afficher la liste des commande en cours</t>
+  </si>
+  <si>
+    <t>$_GET : id : id de l'utilisateur à modifier</t>
   </si>
 </sst>
 </file>
@@ -468,18 +419,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD7706CB-859B-4106-A3D9-209BDCA4BCCF}" name="Tableau3" displayName="Tableau3" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{CD7706CB-859B-4106-A3D9-209BDCA4BCCF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AF852461-D59F-4FF0-96A2-B4F74069FB28}" name="Description"/>
-    <tableColumn id="2" xr3:uid="{16D14DB1-5D99-4BC4-9881-C8EF2D24D2A4}" name="Nom du contrôleur"/>
-    <tableColumn id="3" xr3:uid="{C00C1AA8-7DDF-44D9-9BBB-DF8965BEDB15}" name="Paramètres"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0C421C-F8D6-4681-BDC4-46C3B064CBC3}" name="Tableau1" displayName="Tableau1" ref="A1:C12" totalsRowShown="0">
   <autoFilter ref="A1:C12" xr:uid="{FF0C421C-F8D6-4681-BDC4-46C3B064CBC3}"/>
   <tableColumns count="3">
@@ -793,15 +732,15 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="110" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="197.28515625" customWidth="1"/>
+    <col min="3" max="3" width="199.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +756,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -839,10 +778,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -861,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -875,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,32 +825,32 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -927,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -935,7 +877,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -949,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -957,13 +899,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,40 +913,40 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1012,10 +954,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1023,10 +965,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1034,38 +976,42 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1078,7 +1024,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,171 +1047,58 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61954A5-74A5-4B33-BD43-E69080BADAD8}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="115.28515625" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF074440-229E-4F74-903E-9738F797466E}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1273,7 +1106,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1324,7 +1157,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1332,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1176,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1365,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1209,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +1234,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,10 +1242,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
